--- a/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7301826126971847</v>
+        <v>0.7314747453968576</v>
       </c>
       <c r="E2" t="n">
         <v>0.614658715312521</v>
@@ -503,20 +503,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7290412309468561</v>
+        <v>0.7275220018020688</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5950268706740716</v>
+        <v>0.5805274874239775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.718866082424461</v>
+        <v>0.7067329609574093</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8570247350279394</v>
+        <v>0.8432608888730624</v>
       </c>
     </row>
     <row r="4">
@@ -530,20 +530,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7301395873971686</v>
+        <v>0.729124654736764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5840515943734933</v>
+        <v>0.5950268706740716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7122666881610523</v>
+        <v>0.718866082424461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.846781599829401</v>
+        <v>0.8570247350279394</v>
       </c>
     </row>
     <row r="5">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7300684701329397</v>
+        <v>0.7306849292360015</v>
       </c>
       <c r="E5" t="n">
         <v>0.5951688062093066</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7186703277859747</v>
+        <v>0.7199420883218625</v>
       </c>
       <c r="E6" t="n">
         <v>0.5859526986484939</v>
@@ -611,20 +611,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7174073743943653</v>
+        <v>0.7160516452034039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5670776408299466</v>
+        <v>0.5551076458346899</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7071312116740974</v>
+        <v>0.6949337710892807</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8514181814344818</v>
+        <v>0.8406469372339114</v>
       </c>
     </row>
     <row r="8">
@@ -638,20 +638,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.718334524040638</v>
+        <v>0.7170303666175638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5551076458346899</v>
+        <v>0.5390702079497377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6949337710892807</v>
+        <v>0.6767208248177626</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8406469372339114</v>
+        <v>0.8279481166749891</v>
       </c>
     </row>
     <row r="9">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7185152712259277</v>
+        <v>0.7191651251354755</v>
       </c>
       <c r="E9" t="n">
         <v>0.5707955985495464</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6032565359174945</v>
+        <v>0.6031912016243293</v>
       </c>
       <c r="E10" t="n">
         <v>0.6010186238550057</v>
@@ -719,20 +719,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6026068780068203</v>
+        <v>0.6028488348905511</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5938542188089596</v>
+        <v>0.5878796681521615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5939109400288758</v>
+        <v>0.5885187862166137</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5939638334198035</v>
+        <v>0.5891170179878673</v>
       </c>
     </row>
     <row r="12">
@@ -746,20 +746,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6027940240680254</v>
+        <v>0.6027367034234429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5878796681521615</v>
+        <v>0.5938542188089596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5885187862166137</v>
+        <v>0.5939109400288758</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5891170179878673</v>
+        <v>0.5939638334198035</v>
       </c>
     </row>
     <row r="13">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6028378951178356</v>
+        <v>0.6032564221695031</v>
       </c>
       <c r="E13" t="n">
         <v>0.5954460434089589</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6264334370039784</v>
+        <v>0.626369466760216</v>
       </c>
       <c r="E14" t="n">
         <v>0.6239903717433044</v>
@@ -827,20 +827,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6257508437799186</v>
+        <v>0.6258257611068714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6164189239676208</v>
+        <v>0.6114213630217711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6165417412970111</v>
+        <v>0.612007871668953</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6170759411149578</v>
+        <v>0.6126434268673036</v>
       </c>
     </row>
     <row r="16">
@@ -854,20 +854,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6258491575970346</v>
+        <v>0.6258731801449157</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6114213630217711</v>
+        <v>0.6164189239676208</v>
       </c>
       <c r="F16" t="n">
-        <v>0.612007871668953</v>
+        <v>0.6165417412970111</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6126434268673036</v>
+        <v>0.6170759411149578</v>
       </c>
     </row>
     <row r="17">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6259761120552886</v>
+        <v>0.6263624387182642</v>
       </c>
       <c r="E17" t="n">
         <v>0.6178782470182562</v>
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6869569561747251</v>
+        <v>0.6810615160036566</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6868731156989788</v>
+        <v>0.6737624744204248</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6869485409807508</v>
+        <v>0.6743112509176761</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6870132521056972</v>
+        <v>0.6745486377266964</v>
       </c>
     </row>
     <row r="19">
@@ -935,20 +935,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.686941684928257</v>
+        <v>0.6937248387038393</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6866692887260801</v>
+        <v>0.6719516411699592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6867885912877713</v>
+        <v>0.6721268095177348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6868871169314645</v>
+        <v>0.6737795309311089</v>
       </c>
     </row>
     <row r="20">
@@ -962,20 +962,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.697358545386203</v>
+        <v>0.6796777814820135</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6994779492043864</v>
+        <v>0.6533136550058209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6995384896631881</v>
+        <v>0.6535833496110711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6996760195624842</v>
+        <v>0.6538453745643791</v>
       </c>
     </row>
     <row r="21">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6913049477756342</v>
+        <v>0.6841117478261509</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6919030843182813</v>
+        <v>0.6714429719355082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.691999141465471</v>
+        <v>0.6716585489842333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.692176864039401</v>
+        <v>0.6718791796141838</v>
       </c>
     </row>
     <row r="22">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7127719920490349</v>
+        <v>0.7070817008827719</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7127035818888061</v>
+        <v>0.6979255606208118</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7127516833983989</v>
+        <v>0.6981345699727914</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7127891654170786</v>
+        <v>0.6991365802059701</v>
       </c>
     </row>
     <row r="23">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sugarcane</t>
+          <t>cornstover</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.712815803766977</v>
+        <v>0.7150761631438003</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7125365138403975</v>
+        <v>0.6907572379493958</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7125824614233371</v>
+        <v>0.6920983812852993</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7126259199942291</v>
+        <v>0.6934675501331323</v>
       </c>
     </row>
     <row r="24">
@@ -1070,20 +1070,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cornstover</t>
+          <t>sugarcane</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7190871128968975</v>
+        <v>0.7056682221142379</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6996945680899013</v>
+        <v>0.6848391174624211</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6997994149312223</v>
+        <v>0.685441725242266</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6999973035885948</v>
+        <v>0.6868155028790894</v>
       </c>
     </row>
     <row r="25">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.7161751730546092</v>
+        <v>0.7086923329599475</v>
       </c>
       <c r="E25" t="n">
-        <v>0.716183992014179</v>
+        <v>0.6882993284376934</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7164014433947288</v>
+        <v>0.688451679968975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7164802796468823</v>
+        <v>0.6886189202870117</v>
       </c>
     </row>
   </sheetData>

--- a/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
@@ -699,13 +699,13 @@
         <v>0.6031912016243293</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6010186238550057</v>
+        <v>0.5986548995531681</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6014137107265549</v>
+        <v>0.5987440318041106</v>
       </c>
       <c r="G10" t="n">
-        <v>0.602043618437349</v>
+        <v>0.5988283263768763</v>
       </c>
     </row>
     <row r="11">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6028488348905511</v>
+        <v>0.6028488348904371</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5878796681521615</v>
+        <v>0.5854047692975199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5885187862166137</v>
+        <v>0.5857518754390745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5891170179878673</v>
+        <v>0.586100821567949</v>
       </c>
     </row>
     <row r="12">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6027367034234429</v>
+        <v>0.6027367034234539</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5938542188089596</v>
+        <v>0.591779165550224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5939109400288758</v>
+        <v>0.5923570483142888</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5939638334198035</v>
+        <v>0.5924496053209782</v>
       </c>
     </row>
     <row r="13">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6032564221695031</v>
+        <v>0.6032563360714954</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5954460434089589</v>
+        <v>0.5927185846790763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.595763065016786</v>
+        <v>0.5928064600981822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5960700468886163</v>
+        <v>0.5928909045560399</v>
       </c>
     </row>
     <row r="14">
@@ -807,13 +807,13 @@
         <v>0.626369466760216</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6239903717433044</v>
+        <v>0.6215865611896321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.624632678099853</v>
+        <v>0.6216761342309467</v>
       </c>
       <c r="G14" t="n">
-        <v>0.62525646469042</v>
+        <v>0.6217654214631273</v>
       </c>
     </row>
     <row r="15">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6258257611068714</v>
+        <v>0.625825761106789</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6114213630217711</v>
+        <v>0.6088896977205107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.612007871668953</v>
+        <v>0.6092256641852031</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6126434268673036</v>
+        <v>0.6094382465732844</v>
       </c>
     </row>
     <row r="16">
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6258731801449157</v>
+        <v>0.6258731801449422</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6164189239676208</v>
+        <v>0.6151550372018855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6165417412970111</v>
+        <v>0.6157126652832703</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6170759411149578</v>
+        <v>0.6158215982194363</v>
       </c>
     </row>
     <row r="17">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6263624387182642</v>
+        <v>0.6263624387181024</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6178782470182562</v>
+        <v>0.6160755651237659</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6184949096173198</v>
+        <v>0.6161684793177287</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6189489447565439</v>
+        <v>0.6162814775809038</v>
       </c>
     </row>
     <row r="18">

--- a/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/g_coeff_baselines_percentiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>product</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +453,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.7314550469766213</v>
       </c>
       <c r="E2">
-        <v>0.5933655758606591</v>
+        <v>0.6073315417745554</v>
       </c>
       <c r="F2">
-        <v>0.7197225326334876</v>
+        <v>0.7363282157167577</v>
       </c>
       <c r="G2">
-        <v>0.8546251657490049</v>
+        <v>0.8712409143993706</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +476,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0.7274075786969659</v>
       </c>
       <c r="E3">
-        <v>0.542782603943271</v>
+        <v>0.5996649640605011</v>
       </c>
       <c r="F3">
-        <v>0.6713817426409219</v>
+        <v>0.7274053599137911</v>
       </c>
       <c r="G3">
-        <v>0.8107238108240501</v>
+        <v>0.8654288090422341</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,19 +499,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.7292666503352085</v>
       </c>
       <c r="E4">
-        <v>0.5630794038477485</v>
+        <v>0.6034084310599767</v>
       </c>
       <c r="F4">
-        <v>0.6914293394034083</v>
+        <v>0.7310369659169794</v>
       </c>
       <c r="G4">
-        <v>0.827746810849724</v>
+        <v>0.8676865844103966</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +522,479 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.7308283707916531</v>
       </c>
       <c r="E5">
-        <v>0.5643014482178124</v>
+        <v>0.6042989119138078</v>
       </c>
       <c r="F5">
-        <v>0.6927623816303168</v>
+        <v>0.7322604899621095</v>
       </c>
       <c r="G5">
-        <v>0.83103280344692</v>
+        <v>0.8684388513140531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.7199227004730122</v>
+      </c>
+      <c r="E6">
+        <v>0.5769810431680584</v>
+      </c>
+      <c r="F6">
+        <v>0.7223920271347559</v>
+      </c>
+      <c r="G6">
+        <v>0.8796238615427029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0.7159390329650965</v>
+      </c>
+      <c r="E7">
+        <v>0.5702172925443231</v>
+      </c>
+      <c r="F7">
+        <v>0.7121658080462376</v>
+      </c>
+      <c r="G7">
+        <v>0.8708858553431597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0.7171482561963022</v>
+      </c>
+      <c r="E8">
+        <v>0.5708952887397064</v>
+      </c>
+      <c r="F8">
+        <v>0.7158674568351756</v>
+      </c>
+      <c r="G8">
+        <v>0.8726434568711615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.7193060009113359</v>
+      </c>
+      <c r="E9">
+        <v>0.5733923159825965</v>
+      </c>
+      <c r="F9">
+        <v>0.7180691530689004</v>
+      </c>
+      <c r="G9">
+        <v>0.8747109650419285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.6031912016138421</v>
+      </c>
+      <c r="E10">
+        <v>0.6026216421771539</v>
+      </c>
+      <c r="F10">
+        <v>0.6031110292700514</v>
+      </c>
+      <c r="G10">
+        <v>0.603165891375321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.6028467111072437</v>
+      </c>
+      <c r="E11">
+        <v>0.6001655996242152</v>
+      </c>
+      <c r="F11">
+        <v>0.6002703258505413</v>
+      </c>
+      <c r="G11">
+        <v>0.6003397745070298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0.6027367034197659</v>
+      </c>
+      <c r="E12">
+        <v>0.5996972151443424</v>
+      </c>
+      <c r="F12">
+        <v>0.5997831622764284</v>
+      </c>
+      <c r="G12">
+        <v>0.5998754370554007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.6032563360609765</v>
+      </c>
+      <c r="E13">
+        <v>0.600141126132765</v>
+      </c>
+      <c r="F13">
+        <v>0.6002299256253016</v>
+      </c>
+      <c r="G13">
+        <v>0.6003213009403772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.6263694667416355</v>
+      </c>
+      <c r="E14">
+        <v>0.6253039054641129</v>
+      </c>
+      <c r="F14">
+        <v>0.6259475473513845</v>
+      </c>
+      <c r="G14">
+        <v>0.6263809999847669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.6258257610868216</v>
+      </c>
+      <c r="E15">
+        <v>0.6232034512474416</v>
+      </c>
+      <c r="F15">
+        <v>0.6232764306172744</v>
+      </c>
+      <c r="G15">
+        <v>0.6233526343453892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0.6258731801358941</v>
+      </c>
+      <c r="E16">
+        <v>0.622961427588584</v>
+      </c>
+      <c r="F16">
+        <v>0.6230520132421062</v>
+      </c>
+      <c r="G16">
+        <v>0.6231439337515442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0.6263624386997503</v>
+      </c>
+      <c r="E17">
+        <v>0.6234071603482397</v>
+      </c>
+      <c r="F17">
+        <v>0.6234966516644186</v>
+      </c>
+      <c r="G17">
+        <v>0.6235892577141555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0.6810615161221891</v>
+      </c>
+      <c r="E18">
+        <v>0.6803019204753691</v>
+      </c>
+      <c r="F18">
+        <v>0.6806893765375333</v>
+      </c>
+      <c r="G18">
+        <v>0.680931037650239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.693721189696649</v>
+      </c>
+      <c r="E19">
+        <v>0.6934850770786753</v>
+      </c>
+      <c r="F19">
+        <v>0.6936381376586955</v>
+      </c>
+      <c r="G19">
+        <v>0.6938211355732211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0.6800120762844655</v>
+      </c>
+      <c r="E20">
+        <v>0.6729691434110393</v>
+      </c>
+      <c r="F20">
+        <v>0.6732627077944797</v>
+      </c>
+      <c r="G20">
+        <v>0.6735527898318922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0.6841117480384231</v>
+      </c>
+      <c r="E21">
+        <v>0.6833018822309411</v>
+      </c>
+      <c r="F21">
+        <v>0.6835034052730637</v>
+      </c>
+      <c r="G21">
+        <v>0.6837109721405819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0.7070817014884934</v>
+      </c>
+      <c r="E22">
+        <v>0.7047264169615309</v>
+      </c>
+      <c r="F22">
+        <v>0.7061890667454427</v>
+      </c>
+      <c r="G22">
+        <v>0.7070639377669186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.7150655432602262</v>
+      </c>
+      <c r="E23">
+        <v>0.7153918576520242</v>
+      </c>
+      <c r="F23">
+        <v>0.7155799679388317</v>
+      </c>
+      <c r="G23">
+        <v>0.7157674083131199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0.706000386201514</v>
+      </c>
+      <c r="E24">
+        <v>0.6994568154771337</v>
+      </c>
+      <c r="F24">
+        <v>0.6996446074202343</v>
+      </c>
+      <c r="G24">
+        <v>0.699827326473934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0.7086923329460663</v>
+      </c>
+      <c r="E25">
+        <v>0.7073498565201265</v>
+      </c>
+      <c r="F25">
+        <v>0.707889648063988</v>
+      </c>
+      <c r="G25">
+        <v>0.7082148640721583</v>
       </c>
     </row>
   </sheetData>
